--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H2">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.913477</v>
+        <v>2.211928</v>
       </c>
       <c r="N2">
-        <v>14.740431</v>
+        <v>6.635783999999999</v>
       </c>
       <c r="O2">
-        <v>0.3201889893918886</v>
+        <v>0.174938892641363</v>
       </c>
       <c r="P2">
-        <v>0.3201889893918885</v>
+        <v>0.1749388926413629</v>
       </c>
       <c r="Q2">
-        <v>58.497965473355</v>
+        <v>52.26868811299999</v>
       </c>
       <c r="R2">
-        <v>526.481689260195</v>
+        <v>470.4181930169999</v>
       </c>
       <c r="S2">
-        <v>0.2624614168514208</v>
+        <v>0.1574869556902424</v>
       </c>
       <c r="T2">
-        <v>0.2624614168514207</v>
+        <v>0.1574869556902424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H3">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I3">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J3">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.594734</v>
       </c>
       <c r="O3">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="P3">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="Q3">
-        <v>46.01414634380333</v>
+        <v>91.32930414841667</v>
       </c>
       <c r="R3">
-        <v>414.12731709423</v>
+        <v>821.9637373357499</v>
       </c>
       <c r="S3">
-        <v>0.2064505653637496</v>
+        <v>0.275177636839618</v>
       </c>
       <c r="T3">
-        <v>0.2064505653637496</v>
+        <v>0.2751776368396179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H4">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I4">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J4">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>19.701493</v>
       </c>
       <c r="O4">
-        <v>0.4279522853287917</v>
+        <v>0.5193896258228967</v>
       </c>
       <c r="P4">
-        <v>0.4279522853287916</v>
+        <v>0.5193896258228966</v>
       </c>
       <c r="Q4">
-        <v>78.18613019439833</v>
+        <v>155.1845558832916</v>
       </c>
       <c r="R4">
-        <v>703.6751717495849</v>
+        <v>1396.661002949625</v>
       </c>
       <c r="S4">
-        <v>0.3507958326909402</v>
+        <v>0.4675752187115527</v>
       </c>
       <c r="T4">
-        <v>0.3507958326909402</v>
+        <v>0.4675752187115526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I5">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J5">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.913477</v>
+        <v>2.211928</v>
       </c>
       <c r="N5">
-        <v>14.740431</v>
+        <v>6.635783999999999</v>
       </c>
       <c r="O5">
-        <v>0.3201889893918886</v>
+        <v>0.174938892641363</v>
       </c>
       <c r="P5">
-        <v>0.3201889893918885</v>
+        <v>0.1749388926413629</v>
       </c>
       <c r="Q5">
-        <v>8.015551569179999</v>
+        <v>3.608406623519999</v>
       </c>
       <c r="R5">
-        <v>72.13996412262</v>
+        <v>32.47565961167999</v>
       </c>
       <c r="S5">
-        <v>0.03596318273070285</v>
+        <v>0.01087222569661802</v>
       </c>
       <c r="T5">
-        <v>0.03596318273070284</v>
+        <v>0.01087222569661802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I6">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J6">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.594734</v>
       </c>
       <c r="O6">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="P6">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="Q6">
         <v>6.30498445452</v>
@@ -818,10 +818,10 @@
         <v>56.74486009068</v>
       </c>
       <c r="S6">
-        <v>0.02828842233689728</v>
+        <v>0.01899708684614368</v>
       </c>
       <c r="T6">
-        <v>0.02828842233689728</v>
+        <v>0.01899708684614368</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I7">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J7">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>19.701493</v>
       </c>
       <c r="O7">
-        <v>0.4279522853287917</v>
+        <v>0.5193896258228967</v>
       </c>
       <c r="P7">
-        <v>0.4279522853287916</v>
+        <v>0.5193896258228966</v>
       </c>
       <c r="Q7">
         <v>10.71327786354</v>
@@ -880,10 +880,10 @@
         <v>96.41950077185999</v>
       </c>
       <c r="S7">
-        <v>0.04806700650928477</v>
+        <v>0.03227939282778645</v>
       </c>
       <c r="T7">
-        <v>0.04806700650928476</v>
+        <v>0.03227939282778645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.961789</v>
       </c>
       <c r="I8">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J8">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.913477</v>
+        <v>2.211928</v>
       </c>
       <c r="N8">
-        <v>14.740431</v>
+        <v>6.635783999999999</v>
       </c>
       <c r="O8">
-        <v>0.3201889893918886</v>
+        <v>0.174938892641363</v>
       </c>
       <c r="P8">
-        <v>0.3201889893918885</v>
+        <v>0.1749388926413629</v>
       </c>
       <c r="Q8">
-        <v>4.850894043451</v>
+        <v>2.183754673064</v>
       </c>
       <c r="R8">
-        <v>43.658046391059</v>
+        <v>19.653792057576</v>
       </c>
       <c r="S8">
-        <v>0.02176438980976491</v>
+        <v>0.006579711254502556</v>
       </c>
       <c r="T8">
-        <v>0.0217643898097649</v>
+        <v>0.006579711254502554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.961789</v>
       </c>
       <c r="I9">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J9">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>11.594734</v>
       </c>
       <c r="O9">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="P9">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="Q9">
         <v>3.815683957680667</v>
@@ -1004,10 +1004,10 @@
         <v>34.341155619126</v>
       </c>
       <c r="S9">
-        <v>0.01711973757867288</v>
+        <v>0.01149675784997876</v>
       </c>
       <c r="T9">
-        <v>0.01711973757867288</v>
+        <v>0.01149675784997876</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.961789</v>
       </c>
       <c r="I10">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J10">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>19.701493</v>
       </c>
       <c r="O10">
-        <v>0.4279522853287917</v>
+        <v>0.5193896258228967</v>
       </c>
       <c r="P10">
-        <v>0.4279522853287916</v>
+        <v>0.5193896258228966</v>
       </c>
       <c r="Q10">
         <v>6.483518361219667</v>
@@ -1066,10 +1066,10 @@
         <v>58.351665250977</v>
       </c>
       <c r="S10">
-        <v>0.02908944612856671</v>
+        <v>0.01953501428355765</v>
       </c>
       <c r="T10">
-        <v>0.0290894461285667</v>
+        <v>0.01953501428355765</v>
       </c>
     </row>
   </sheetData>
